--- a/medicine/Pharmacie/Jean-Pierre_Boudet_(chimiste)/Jean-Pierre_Boudet_(chimiste).xlsx
+++ b/medicine/Pharmacie/Jean-Pierre_Boudet_(chimiste)/Jean-Pierre_Boudet_(chimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Boudet, né à Reims le 26 octobre 1748, mort à Paris le 18 décembre 1828, est un chimiste et pharmacien français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Boudet, né à Reims le 26 octobre 1748, mort à Paris le 18 décembre 1828, est un chimiste et pharmacien français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est nommé en 1793 inspecteur de région de l’Est pour l’extraction du salpêtre et la fabrication de la poudre. Boudet fait les campagnes de l’Empire en Égypte et en Allemagne en tant que pharmacien des armées.
-Attaché à l'expédition d'Égypte en tant qu'inspecteur des pharmacies, directeur des brasseries et distilleries de l'Armée. Au Caire, il montre un grand courage pendant l'épidémie de peste. Élu membre de l'Institut d'Égypte le 21 janvier 1800 dans la section de physique, Kléber le nomme pharmacien en chef de l'armée le 2 septembre 1800[2].
+Attaché à l'expédition d'Égypte en tant qu'inspecteur des pharmacies, directeur des brasseries et distilleries de l'Armée. Au Caire, il montre un grand courage pendant l'épidémie de peste. Élu membre de l'Institut d'Égypte le 21 janvier 1800 dans la section de physique, Kléber le nomme pharmacien en chef de l'armée le 2 septembre 1800.
 Il est rapatrié en France en août 1801. Chevalier de la Légion d'honneur en 1804.
 Il est admis à la retraite le 8 juin 1810 et se retire à Paris. Il est un des fondateurs de la Société de Pharmacie et un des rédacteurs du Code pharmaceutique.
 Membre de l'Académie de médecine de Paris en 1820. Il meurt avec le titre de pharmacien en chef de l'Hôpital de la Charité. Boudet repose au Père-Lachaise (39e division) où son monument a été remis en état, en 2003, par le Souvenir français.
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On a de lui entre autres travaux :
 des Mémoires sur le phosphore, sur la fabrication du bleu de Prusse (1815) ;
